--- a/test-files/expression-data-test-sheets/expression_sheet_missing_data_ok_export_exact.xlsx
+++ b/test-files/expression-data-test-sheets/expression_sheet_missing_data_ok_export_exact.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="wt_log2_expression" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -119,6 +119,12 @@
   </si>
   <si>
     <t xml:space="preserve">taxon_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">workbookType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grn</t>
   </si>
 </sst>
 </file>
@@ -129,7 +135,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00E+00"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -151,13 +157,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -190,7 +189,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -214,13 +213,13 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+  </cellStyleXfs>
+  <cellXfs count="4">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -228,41 +227,24 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal 3" xfId="20" builtinId="53" customBuiltin="true"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -272,9 +254,9 @@
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.890625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="10.88"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="1" width="10.89"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -331,8 +313,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -341,7 +323,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -351,9 +333,9 @@
       <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.890625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="10.88"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="1" width="10.89"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -414,8 +396,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -424,19 +406,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D38" activeCellId="0" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.890625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="10.88"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="1" width="10.89"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -497,8 +479,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -507,27 +489,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.890625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="1" width="10.88"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="2" style="1" width="10.89"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -535,7 +517,7 @@
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="B2" s="3" t="n">
         <v>0.002</v>
       </c>
     </row>
@@ -543,7 +525,7 @@
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -551,7 +533,7 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4" t="n">
+      <c r="B4" s="3" t="n">
         <v>100000000</v>
       </c>
     </row>
@@ -559,7 +541,7 @@
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="4" t="n">
+      <c r="B5" s="3" t="n">
         <v>1E-006</v>
       </c>
     </row>
@@ -567,7 +549,7 @@
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="4" t="n">
+      <c r="B6" s="3" t="n">
         <v>100000000</v>
       </c>
     </row>
@@ -575,7 +557,7 @@
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="n">
+      <c r="B7" s="3" t="n">
         <v>1E-006</v>
       </c>
     </row>
@@ -583,7 +565,7 @@
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -591,7 +573,7 @@
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="5" t="n">
+      <c r="B9" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -599,7 +581,7 @@
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="5" t="n">
+      <c r="B10" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -607,7 +589,7 @@
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="5" t="n">
+      <c r="B11" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -615,7 +597,7 @@
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="5" t="n">
+      <c r="B12" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -623,7 +605,7 @@
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="6" t="n">
+      <c r="B13" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -631,7 +613,7 @@
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="6" t="n">
+      <c r="B14" s="1" t="n">
         <v>15</v>
       </c>
       <c r="C14" s="1" t="n">
@@ -645,13 +627,13 @@
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -724,10 +706,18 @@
         <v>559292</v>
       </c>
     </row>
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"Page &amp;P</oddFooter>
